--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2131949.405489866</v>
+        <v>2127936.795475874</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283167</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9755679.082220631</v>
+        <v>9755679.082220629</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>345.3378010935438</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>274.4291087681268</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>108.4905777769222</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>109.1426482162464</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>166.9920602376562</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>256.7518877339003</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>154.1571854152108</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>254.612314938741</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>68.11015198957983</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>19.4916849718826</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>132.2596299618492</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991603</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.46574022124193</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.76284745948067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>15.51491006411065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>75.5520862197303</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>7.602497644398836</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419835043</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012157</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695518</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>43.73846614325492</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,16 +3088,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>81.11398998229983</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,22 +3319,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012157</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>37.01163236946785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695564</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428449</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>116.287325111933</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2038.144201386632</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C2" t="n">
-        <v>1669.18168444622</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450754</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4400,28 +4400,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.7574741064773</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1817.708105889581</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1817.708105889581</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1528.605239015225</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1528.605239015225</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1239.188068978264</v>
+        <v>991.7457523842741</v>
       </c>
       <c r="X4" t="n">
-        <v>1011.198518080247</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="Y4" t="n">
-        <v>790.405938936717</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2702.439335264748</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2349.670679994633</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.204921733553</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.4020639300938</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1771.580219386259</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1482.477352511903</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="W7" t="n">
-        <v>623.0400796583508</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="X7" t="n">
-        <v>395.0505287603335</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.0505287603335</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1712.341567565136</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1343.379050624724</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>985.113352017974</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>599.3250994197297</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>188.3391946301221</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>177.3071485155227</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810547</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2862.546497866149</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2098.941407629258</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.8171257877602</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C10" t="n">
-        <v>664.8171257877602</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D10" t="n">
-        <v>514.7004863754245</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="E10" t="n">
-        <v>514.7004863754245</v>
+        <v>285.796379051221</v>
       </c>
       <c r="F10" t="n">
-        <v>367.8105388775141</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="G10" t="n">
-        <v>200.1077022522331</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.25816976153</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.465590618</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5044,19 +5044,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2970.825600989577</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>2801.88941806167</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2651.772778649335</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649335</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3601.256195861364</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3373.266644963347</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3152.474065819817</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2372.238089282765</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2152.636624305706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400834</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121766</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>194.800778399841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>194.800778399841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>194.800778399841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797842</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910819</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570828</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279813</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832673</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487578</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510519</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854717</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648831</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561187</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713853</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.502065570323</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011938</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>550.6376870732869</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>550.6376870732869</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2402.78281474869</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2183.181349771631</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U31" t="n">
-        <v>1894.106123115828</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1639.421634909942</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.004464872981</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>1122.014913974964</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314335</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168594</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111706</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.9555321712444</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0193492433376</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>407.902709831002</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>407.902709831002</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258107</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602305</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396419</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359458</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.396576145014</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.603997001484</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811326</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532258</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408902</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408902</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429799</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.61519755786</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487569</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831767</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1870.60183158988</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.184661552919</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654902</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511372</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400738</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121671</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121671</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121671</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121671</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270471</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648821</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611861</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138435</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703134</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2079.600600930059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.8218058926141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>151.7319110345172</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>210.9709121168607</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.4237883572458</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.5498640939183</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671011455</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>137.2878198583896</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>144.5956654067372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>215.12601095436</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392193928</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840134.0879475153</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
@@ -26337,25 +26337,25 @@
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26438,25 +26438,25 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184271</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="J4" t="n">
-        <v>13606.80811184291</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184291</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184291</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184281</v>
-      </c>
       <c r="N4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26475,7 +26475,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934217.2460205744</v>
+        <v>-934217.2460205745</v>
       </c>
       <c r="C6" t="n">
-        <v>394527.4997070181</v>
+        <v>394527.4997070183</v>
       </c>
       <c r="D6" t="n">
-        <v>394527.4997070182</v>
+        <v>394527.4997070187</v>
       </c>
       <c r="E6" t="n">
-        <v>145039.4850321496</v>
+        <v>144692.1057777919</v>
       </c>
       <c r="F6" t="n">
-        <v>470451.9468395045</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="G6" t="n">
-        <v>470451.9468395042</v>
+        <v>470104.5675851477</v>
       </c>
       <c r="H6" t="n">
-        <v>470451.9468395046</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="I6" t="n">
-        <v>470451.9468395045</v>
+        <v>470104.5675851475</v>
       </c>
       <c r="J6" t="n">
-        <v>252920.7444422269</v>
+        <v>252573.3651878702</v>
       </c>
       <c r="K6" t="n">
-        <v>470451.9468395042</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="L6" t="n">
-        <v>470451.9468395044</v>
+        <v>470104.5675851475</v>
       </c>
       <c r="M6" t="n">
-        <v>385396.9189039925</v>
+        <v>385049.5396496357</v>
       </c>
       <c r="N6" t="n">
-        <v>470451.9468395046</v>
+        <v>470104.5675851475</v>
       </c>
       <c r="O6" t="n">
-        <v>470451.9468395046</v>
+        <v>470104.5675851475</v>
       </c>
       <c r="P6" t="n">
-        <v>470451.9468395045</v>
+        <v>470104.5675851475</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9.345240527139197</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>132.4469369735846</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>81.27844755451972</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>177.3803501203446</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>198.2808315333513</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>71.00037073623463</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>65.39176386095838</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>31.91068339784999</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>226.4976123977407</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>329.7492837455304</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>12.49538495247162</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.6820484399221</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>9.826637159155081e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29678,10 +29678,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -29690,7 +29690,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29717,10 +29717,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.147733118028418e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29808,16 +29808,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29994,10 +29994,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30039,22 +30039,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987508</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32256,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,10 +33736,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127293</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191412</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2127936.795475874</v>
+        <v>2129697.325778659</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9755679.082220629</v>
+        <v>9755679.082220627</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>274.4291087681268</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>307.1342687579303</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>109.1426482162464</v>
+        <v>109.1426482162451</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376562</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>222.3572755523053</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>57.80476500537281</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>154.1571854152108</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>68.11015198957983</v>
+        <v>54.34809064563371</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991603</v>
+        <v>71.67037196991602</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.46574022124193</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>114.7205611007759</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695564</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495403</v>
+        <v>1127.748203495402</v>
       </c>
       <c r="C2" t="n">
-        <v>758.7856865549918</v>
+        <v>1127.748203495402</v>
       </c>
       <c r="D2" t="n">
-        <v>758.7856865549918</v>
+        <v>769.4825048886516</v>
       </c>
       <c r="E2" t="n">
-        <v>758.7856865549918</v>
+        <v>383.6942522904074</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>376.7487515412039</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.573581468608</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080135</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,67 +4464,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W4" t="n">
         <v>991.7457523842741</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458458</v>
+        <v>1754.744438482646</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1385.781921542234</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1027.516222935483</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>641.7279703372392</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.48361052258</v>
+        <v>2141.344278546767</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,31 +4664,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1868.905896567914</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1868.905896567914</v>
       </c>
       <c r="T7" t="n">
-        <v>1771.580219386259</v>
+        <v>1868.905896567914</v>
       </c>
       <c r="U7" t="n">
-        <v>1482.477352511903</v>
+        <v>1579.803029693557</v>
       </c>
       <c r="V7" t="n">
-        <v>1227.792864306016</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="W7" t="n">
-        <v>1227.792864306016</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="X7" t="n">
-        <v>1227.792864306016</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y7" t="n">
-        <v>1007.000285162486</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565136</v>
+        <v>2102.480899540948</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624724</v>
+        <v>1733.518382600536</v>
       </c>
       <c r="D8" t="n">
-        <v>985.113352017974</v>
+        <v>1375.252683993786</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197297</v>
+        <v>989.4644313955416</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301221</v>
+        <v>578.4785266059341</v>
       </c>
       <c r="G8" t="n">
-        <v>177.3071485155227</v>
+        <v>163.4060764509306</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609169</v>
@@ -4843,13 +4843,13 @@
         <v>3215.315153136264</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866149</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X8" t="n">
         <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629258</v>
+        <v>2489.08073960507</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4959,13 +4959,13 @@
         <v>138.9064315533107</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764912</v>
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776659</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2331.083728933012</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2111.482263955953</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1822.407037300151</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1567.722549094264</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1050.315828159286</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5524,19 +5524,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311171</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1569.732795130727</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.315625093766</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7405,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7560,13 +7560,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.288530476235451e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>85.96822242532724</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>66.30572490086867</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752545</v>
@@ -26334,13 +26334,13 @@
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
@@ -26349,10 +26349,10 @@
         <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319419</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319416</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26432,10 +26432,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
@@ -26444,22 +26444,22 @@
         <v>13606.8081118428</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="O4" t="n">
-        <v>13606.8081118428</v>
-      </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934217.2460205745</v>
+        <v>-934217.246020574</v>
       </c>
       <c r="C6" t="n">
-        <v>394527.4997070183</v>
+        <v>394527.4997070178</v>
       </c>
       <c r="D6" t="n">
-        <v>394527.4997070187</v>
+        <v>394527.4997070185</v>
       </c>
       <c r="E6" t="n">
-        <v>144692.1057777919</v>
+        <v>145004.7471067133</v>
       </c>
       <c r="F6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140687</v>
       </c>
       <c r="G6" t="n">
-        <v>470104.5675851477</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="H6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="I6" t="n">
-        <v>470104.5675851475</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="J6" t="n">
-        <v>252573.3651878702</v>
+        <v>252886.0065167916</v>
       </c>
       <c r="K6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.208914069</v>
       </c>
       <c r="L6" t="n">
-        <v>470104.5675851475</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="M6" t="n">
-        <v>385049.5396496357</v>
+        <v>385362.1809785571</v>
       </c>
       <c r="N6" t="n">
-        <v>470104.5675851475</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="O6" t="n">
-        <v>470104.5675851475</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="P6" t="n">
-        <v>470104.5675851475</v>
+        <v>470417.2089140689</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>132.4469369735846</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>103.7874568955231</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>177.3803501203446</v>
+        <v>177.3803501203459</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333513</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>184.5187701894061</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>31.12738766467453</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>65.39176386095838</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>226.4976123977407</v>
+        <v>240.2596737416868</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095019</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987508</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.9375967297389</v>
@@ -31688,31 +31688,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -32244,7 +32244,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32256,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33678,10 +33678,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013289</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127293</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.757372170198</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
